--- a/Assets/ExcelDatas/PatternData.xlsx
+++ b/Assets/ExcelDatas/PatternData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C24808-8AE5-4B05-BB97-9C0F688605A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{21C24808-8AE5-4B05-BB97-9C0F688605A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705C472A-1A82-4324-995A-3D792F777948}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -714,7 +714,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -816,7 +816,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
-        <v>10001</v>
+        <v>2000</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
-        <v>10002</v>
+        <v>2001</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
-        <v>10003</v>
+        <v>2002</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
-        <v>10004</v>
+        <v>2003</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
-        <v>10005</v>
+        <v>2004</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
-        <v>10006</v>
+        <v>2005</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
-        <v>10007</v>
+        <v>2006</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
-        <v>10008</v>
+        <v>2007</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
-        <v>10009</v>
+        <v>2008</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>

--- a/Assets/ExcelDatas/PatternData.xlsx
+++ b/Assets/ExcelDatas/PatternData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{21C24808-8AE5-4B05-BB97-9C0F688605A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705C472A-1A82-4324-995A-3D792F777948}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{21C24808-8AE5-4B05-BB97-9C0F688605A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B667A8-65EA-474F-97AD-34EF29B786D6}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -104,14 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패턴1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +117,14 @@
   </si>
   <si>
     <t>PatternInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,6 +394,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A3:I12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
@@ -405,9 +409,7 @@
     <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Vertical3" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Vertical4" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="Vertical5" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{AFE0E3BE-DBE2-472F-B91A-2CC2FEFC2192}" name="PatternInterval" dataDxfId="1">
-      <calculatedColumnFormula array="1">COUNTIF(표2[[#This Row],[Vertical1]:[Vertical5]],Monster)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="7" xr3:uid="{AFE0E3BE-DBE2-472F-B91A-2CC2FEFC2192}" name="PatternInterval" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{3B2A1E1A-0AF5-4CA2-8514-2236250EEDF9}" name="MonsterCnt" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -714,7 +716,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -729,7 +731,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -750,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.6">
@@ -779,10 +781,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
@@ -808,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -819,7 +821,7 @@
         <v>2000</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -837,7 +839,7 @@
         <v>1010</v>
       </c>
       <c r="H4" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -848,7 +850,7 @@
         <v>2001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -866,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -895,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -924,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -982,7 +984,7 @@
         <v>1010</v>
       </c>
       <c r="H9" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1">
         <v>3</v>
@@ -1011,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1040,7 +1042,7 @@
         <v>1010</v>
       </c>
       <c r="H11" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>

--- a/Assets/ExcelDatas/PatternData.xlsx
+++ b/Assets/ExcelDatas/PatternData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{21C24808-8AE5-4B05-BB97-9C0F688605A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B667A8-65EA-474F-97AD-34EF29B786D6}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{21C24808-8AE5-4B05-BB97-9C0F688605A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B333CD7D-937D-4C10-91A2-75DE1D971DE2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>ALL</t>
   </si>
@@ -126,6 +126,66 @@
   <si>
     <t>스테이지1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지1_10</t>
+  </si>
+  <si>
+    <t>스테이지1_11</t>
+  </si>
+  <si>
+    <t>스테이지1_12</t>
+  </si>
+  <si>
+    <t>스테이지1_13</t>
+  </si>
+  <si>
+    <t>스테이지1_14</t>
+  </si>
+  <si>
+    <t>스테이지1_15</t>
+  </si>
+  <si>
+    <t>스테이지1_16</t>
+  </si>
+  <si>
+    <t>스테이지1_17</t>
+  </si>
+  <si>
+    <t>스테이지1_18</t>
+  </si>
+  <si>
+    <t>스테이지1_19</t>
+  </si>
+  <si>
+    <t>스테이지1_20</t>
+  </si>
+  <si>
+    <t>스테이지1_21</t>
+  </si>
+  <si>
+    <t>스테이지1_22</t>
+  </si>
+  <si>
+    <t>스테이지1_23</t>
+  </si>
+  <si>
+    <t>스테이지1_24</t>
+  </si>
+  <si>
+    <t>스테이지1_25</t>
+  </si>
+  <si>
+    <t>스테이지1_26</t>
+  </si>
+  <si>
+    <t>스테이지1_27</t>
+  </si>
+  <si>
+    <t>스테이지1_28</t>
+  </si>
+  <si>
+    <t>스테이지1_29</t>
   </si>
 </sst>
 </file>
@@ -399,8 +459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I203" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I203" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
     <tableColumn id="10" xr3:uid="{A1B50B1E-34DC-4AE8-8B12-DAE7B26F3FE7}" name="Name" dataDxfId="7"/>
@@ -713,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -836,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>6</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
@@ -862,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="H5" s="1">
         <v>6</v>
@@ -888,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -914,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -940,10 +1000,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -975,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>6</v>
       </c>
       <c r="I9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.6">
@@ -998,16 +1058,16 @@
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="D10" s="1">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1013</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1016,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
@@ -1039,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>6</v>
       </c>
       <c r="I11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.6">
@@ -1056,10 +1116,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="D12" s="1">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1075,6 +1135,586 @@
       </c>
       <c r="I12" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A13" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A14" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A15" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A16" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A17" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A18" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A19" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A20" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A21" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A22" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A23" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A24" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H24" s="1">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A25" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H25" s="1">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A26" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A27" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A28" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H28" s="1">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A29" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H29" s="1">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A30" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H30" s="1">
+        <v>6</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A31" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A32" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H32" s="1">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/PatternData.xlsx
+++ b/Assets/ExcelDatas/PatternData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{21C24808-8AE5-4B05-BB97-9C0F688605A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B333CD7D-937D-4C10-91A2-75DE1D971DE2}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{21C24808-8AE5-4B05-BB97-9C0F688605A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{644823B9-426D-4568-A764-D57A99E017D4}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
   <si>
     <t>ALL</t>
   </si>
@@ -75,27 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지1_3</t>
-  </si>
-  <si>
-    <t>스테이지1_4</t>
-  </si>
-  <si>
-    <t>스테이지1_5</t>
-  </si>
-  <si>
-    <t>스테이지1_6</t>
-  </si>
-  <si>
-    <t>스테이지1_7</t>
-  </si>
-  <si>
-    <t>스테이지1_8</t>
-  </si>
-  <si>
-    <t>스테이지1_9</t>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,72 +99,265 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지1_10</t>
-  </si>
-  <si>
-    <t>스테이지1_11</t>
-  </si>
-  <si>
-    <t>스테이지1_12</t>
-  </si>
-  <si>
-    <t>스테이지1_13</t>
-  </si>
-  <si>
-    <t>스테이지1_14</t>
-  </si>
-  <si>
-    <t>스테이지1_15</t>
-  </si>
-  <si>
-    <t>스테이지1_16</t>
-  </si>
-  <si>
-    <t>스테이지1_17</t>
-  </si>
-  <si>
-    <t>스테이지1_18</t>
-  </si>
-  <si>
-    <t>스테이지1_19</t>
-  </si>
-  <si>
-    <t>스테이지1_20</t>
-  </si>
-  <si>
-    <t>스테이지1_21</t>
-  </si>
-  <si>
-    <t>스테이지1_22</t>
-  </si>
-  <si>
-    <t>스테이지1_23</t>
-  </si>
-  <si>
-    <t>스테이지1_24</t>
-  </si>
-  <si>
-    <t>스테이지1_25</t>
-  </si>
-  <si>
-    <t>스테이지1_26</t>
-  </si>
-  <si>
-    <t>스테이지1_27</t>
-  </si>
-  <si>
-    <t>스테이지1_28</t>
-  </si>
-  <si>
-    <t>스테이지1_29</t>
+    <t>페이즈1_1</t>
+  </si>
+  <si>
+    <t>페이즈1_2</t>
+  </si>
+  <si>
+    <t>페이즈1_3</t>
+  </si>
+  <si>
+    <t>페이즈1_4</t>
+  </si>
+  <si>
+    <t>페이즈1_5</t>
+  </si>
+  <si>
+    <t>페이즈1_6</t>
+  </si>
+  <si>
+    <t>페이즈1_7</t>
+  </si>
+  <si>
+    <t>페이즈1_8</t>
+  </si>
+  <si>
+    <t>페이즈1_9</t>
+  </si>
+  <si>
+    <t>페이즈1_10</t>
+  </si>
+  <si>
+    <t>페이즈1_11</t>
+  </si>
+  <si>
+    <t>페이즈1_12</t>
+  </si>
+  <si>
+    <t>페이즈1_13</t>
+  </si>
+  <si>
+    <t>페이즈1_14</t>
+  </si>
+  <si>
+    <t>페이즈1_15</t>
+  </si>
+  <si>
+    <t>페이즈1_16</t>
+  </si>
+  <si>
+    <t>페이즈1_17</t>
+  </si>
+  <si>
+    <t>페이즈1_18</t>
+  </si>
+  <si>
+    <t>페이즈1_19</t>
+  </si>
+  <si>
+    <t>페이즈1_20</t>
+  </si>
+  <si>
+    <t>페이즈1_21</t>
+  </si>
+  <si>
+    <t>페이즈1_22</t>
+  </si>
+  <si>
+    <t>페이즈1_23</t>
+  </si>
+  <si>
+    <t>페이즈1_24</t>
+  </si>
+  <si>
+    <t>페이즈1_25</t>
+  </si>
+  <si>
+    <t>페이즈1_26</t>
+  </si>
+  <si>
+    <t>페이즈1_27</t>
+  </si>
+  <si>
+    <t>페이즈1_28</t>
+  </si>
+  <si>
+    <t>페이즈1_29</t>
+  </si>
+  <si>
+    <t>페이즈2_1</t>
+  </si>
+  <si>
+    <t>페이즈2_2</t>
+  </si>
+  <si>
+    <t>페이즈2_3</t>
+  </si>
+  <si>
+    <t>페이즈2_4</t>
+  </si>
+  <si>
+    <t>페이즈2_5</t>
+  </si>
+  <si>
+    <t>페이즈2_6</t>
+  </si>
+  <si>
+    <t>페이즈2_7</t>
+  </si>
+  <si>
+    <t>페이즈2_8</t>
+  </si>
+  <si>
+    <t>페이즈2_9</t>
+  </si>
+  <si>
+    <t>페이즈2_10</t>
+  </si>
+  <si>
+    <t>페이즈2_11</t>
+  </si>
+  <si>
+    <t>페이즈2_12</t>
+  </si>
+  <si>
+    <t>페이즈2_13</t>
+  </si>
+  <si>
+    <t>페이즈2_14</t>
+  </si>
+  <si>
+    <t>페이즈2_15</t>
+  </si>
+  <si>
+    <t>페이즈2_16</t>
+  </si>
+  <si>
+    <t>페이즈2_17</t>
+  </si>
+  <si>
+    <t>페이즈2_18</t>
+  </si>
+  <si>
+    <t>페이즈2_19</t>
+  </si>
+  <si>
+    <t>페이즈2_20</t>
+  </si>
+  <si>
+    <t>페이즈2_21</t>
+  </si>
+  <si>
+    <t>페이즈2_22</t>
+  </si>
+  <si>
+    <t>페이즈2_23</t>
+  </si>
+  <si>
+    <t>페이즈2_24</t>
+  </si>
+  <si>
+    <t>페이즈2_25</t>
+  </si>
+  <si>
+    <t>페이즈2_26</t>
+  </si>
+  <si>
+    <t>페이즈2_27</t>
+  </si>
+  <si>
+    <t>페이즈2_28</t>
+  </si>
+  <si>
+    <t>페이즈2_29</t>
+  </si>
+  <si>
+    <t>페이즈3_1</t>
+  </si>
+  <si>
+    <t>페이즈3_2</t>
+  </si>
+  <si>
+    <t>페이즈3_3</t>
+  </si>
+  <si>
+    <t>페이즈3_4</t>
+  </si>
+  <si>
+    <t>페이즈3_5</t>
+  </si>
+  <si>
+    <t>페이즈3_6</t>
+  </si>
+  <si>
+    <t>페이즈3_7</t>
+  </si>
+  <si>
+    <t>페이즈3_8</t>
+  </si>
+  <si>
+    <t>페이즈3_9</t>
+  </si>
+  <si>
+    <t>페이즈3_10</t>
+  </si>
+  <si>
+    <t>페이즈3_11</t>
+  </si>
+  <si>
+    <t>페이즈3_12</t>
+  </si>
+  <si>
+    <t>페이즈3_13</t>
+  </si>
+  <si>
+    <t>페이즈3_14</t>
+  </si>
+  <si>
+    <t>페이즈3_15</t>
+  </si>
+  <si>
+    <t>페이즈3_16</t>
+  </si>
+  <si>
+    <t>페이즈3_17</t>
+  </si>
+  <si>
+    <t>페이즈3_18</t>
+  </si>
+  <si>
+    <t>페이즈3_19</t>
+  </si>
+  <si>
+    <t>페이즈3_20</t>
+  </si>
+  <si>
+    <t>페이즈3_21</t>
+  </si>
+  <si>
+    <t>페이즈3_22</t>
+  </si>
+  <si>
+    <t>페이즈3_23</t>
+  </si>
+  <si>
+    <t>페이즈3_24</t>
+  </si>
+  <si>
+    <t>페이즈3_25</t>
+  </si>
+  <si>
+    <t>페이즈3_26</t>
+  </si>
+  <si>
+    <t>페이즈3_27</t>
+  </si>
+  <si>
+    <t>페이즈3_28</t>
+  </si>
+  <si>
+    <t>페이즈3_29</t>
   </si>
 </sst>
 </file>
@@ -459,8 +631,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I203" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I203" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I119" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I119" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
     <tableColumn id="10" xr3:uid="{A1B50B1E-34DC-4AE8-8B12-DAE7B26F3FE7}" name="Name" dataDxfId="7"/>
@@ -773,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -791,7 +963,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -812,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.6">
@@ -841,10 +1013,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
@@ -852,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -870,10 +1042,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
@@ -881,7 +1053,7 @@
         <v>2000</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -910,7 +1082,7 @@
         <v>2001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -939,7 +1111,7 @@
         <v>2002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -968,7 +1140,7 @@
         <v>2003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -997,7 +1169,7 @@
         <v>2004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1026,7 +1198,7 @@
         <v>2005</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>1010</v>
@@ -1055,7 +1227,7 @@
         <v>2006</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>1010</v>
@@ -1084,7 +1256,7 @@
         <v>2007</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>1010</v>
@@ -1113,7 +1285,7 @@
         <v>2008</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>1010</v>
@@ -1714,6 +1886,2529 @@
         <v>6</v>
       </c>
       <c r="I32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A33" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>6</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A34" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H34" s="1">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A35" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A36" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>6</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A37" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A38" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A39" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A40" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>6</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A41" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A42" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H42" s="1">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A43" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>6</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A44" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>6</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A45" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H45" s="1">
+        <v>6</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A46" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>6</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A47" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H47" s="1">
+        <v>6</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A48" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H48" s="1">
+        <v>6</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A49" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>6</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A50" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A51" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H51" s="1">
+        <v>6</v>
+      </c>
+      <c r="I51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A52" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>6</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A53" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H53" s="1">
+        <v>6</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A54" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H54" s="1">
+        <v>6</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A55" s="1">
+        <v>2051</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H55" s="1">
+        <v>6</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A56" s="1">
+        <v>2052</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>6</v>
+      </c>
+      <c r="I56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A57" s="1">
+        <v>2053</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H57" s="1">
+        <v>6</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A58" s="1">
+        <v>2054</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H58" s="1">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A59" s="1">
+        <v>2055</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H59" s="1">
+        <v>6</v>
+      </c>
+      <c r="I59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A60" s="1">
+        <v>2056</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H60" s="1">
+        <v>6</v>
+      </c>
+      <c r="I60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A61" s="1">
+        <v>2057</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H61" s="1">
+        <v>6</v>
+      </c>
+      <c r="I61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A62" s="1">
+        <v>2058</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>6</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A63" s="1">
+        <v>2059</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H63" s="1">
+        <v>6</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A64" s="1">
+        <v>2060</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>6</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A65" s="1">
+        <v>2061</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>6</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A66" s="1">
+        <v>2062</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A67" s="1">
+        <v>2063</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>6</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A68" s="1">
+        <v>2064</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>6</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A69" s="1">
+        <v>2065</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>6</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A70" s="1">
+        <v>2066</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>6</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A71" s="1">
+        <v>2067</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H71" s="1">
+        <v>6</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A72" s="1">
+        <v>2068</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>6</v>
+      </c>
+      <c r="I72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A73" s="1">
+        <v>2069</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>6</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A74" s="1">
+        <v>2070</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H74" s="1">
+        <v>6</v>
+      </c>
+      <c r="I74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A75" s="1">
+        <v>2071</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>6</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A76" s="1">
+        <v>2072</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H76" s="1">
+        <v>6</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A77" s="1">
+        <v>2073</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H77" s="1">
+        <v>6</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A78" s="1">
+        <v>2074</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>6</v>
+      </c>
+      <c r="I78" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A79" s="1">
+        <v>2075</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>6</v>
+      </c>
+      <c r="I79" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A80" s="1">
+        <v>2076</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H80" s="1">
+        <v>6</v>
+      </c>
+      <c r="I80" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A81" s="1">
+        <v>2077</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>6</v>
+      </c>
+      <c r="I81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A82" s="1">
+        <v>2078</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H82" s="1">
+        <v>6</v>
+      </c>
+      <c r="I82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A83" s="1">
+        <v>2079</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H83" s="1">
+        <v>6</v>
+      </c>
+      <c r="I83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A84" s="1">
+        <v>2080</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H84" s="1">
+        <v>6</v>
+      </c>
+      <c r="I84" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A85" s="1">
+        <v>2081</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>6</v>
+      </c>
+      <c r="I85" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A86" s="1">
+        <v>2082</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H86" s="1">
+        <v>6</v>
+      </c>
+      <c r="I86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A87" s="1">
+        <v>2083</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H87" s="1">
+        <v>6</v>
+      </c>
+      <c r="I87" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A88" s="1">
+        <v>2084</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H88" s="1">
+        <v>6</v>
+      </c>
+      <c r="I88" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A89" s="1">
+        <v>2085</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H89" s="1">
+        <v>6</v>
+      </c>
+      <c r="I89" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A90" s="1">
+        <v>2086</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H90" s="1">
+        <v>6</v>
+      </c>
+      <c r="I90" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A91" s="1">
+        <v>2087</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>6</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A92" s="1">
+        <v>2088</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H92" s="1">
+        <v>6</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A93" s="1">
+        <v>2089</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>6</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A94" s="1">
+        <v>2090</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>6</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A95" s="1">
+        <v>2091</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>6</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A96" s="1">
+        <v>2092</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>6</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A97" s="1">
+        <v>2093</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>6</v>
+      </c>
+      <c r="I97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A98" s="1">
+        <v>2094</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>6</v>
+      </c>
+      <c r="I98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A99" s="1">
+        <v>2095</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>6</v>
+      </c>
+      <c r="I99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A100" s="1">
+        <v>2096</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H100" s="1">
+        <v>6</v>
+      </c>
+      <c r="I100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A101" s="1">
+        <v>2097</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>6</v>
+      </c>
+      <c r="I101" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A102" s="1">
+        <v>2098</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>6</v>
+      </c>
+      <c r="I102" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A103" s="1">
+        <v>2099</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H103" s="1">
+        <v>6</v>
+      </c>
+      <c r="I103" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A104" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>6</v>
+      </c>
+      <c r="I104" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A105" s="1">
+        <v>2101</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H105" s="1">
+        <v>6</v>
+      </c>
+      <c r="I105" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A106" s="1">
+        <v>2102</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H106" s="1">
+        <v>6</v>
+      </c>
+      <c r="I106" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A107" s="1">
+        <v>2103</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>6</v>
+      </c>
+      <c r="I107" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A108" s="1">
+        <v>2104</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>6</v>
+      </c>
+      <c r="I108" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A109" s="1">
+        <v>2105</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H109" s="1">
+        <v>6</v>
+      </c>
+      <c r="I109" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A110" s="1">
+        <v>2106</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>6</v>
+      </c>
+      <c r="I110" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A111" s="1">
+        <v>2107</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H111" s="1">
+        <v>6</v>
+      </c>
+      <c r="I111" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A112" s="1">
+        <v>2108</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H112" s="1">
+        <v>6</v>
+      </c>
+      <c r="I112" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A113" s="1">
+        <v>2109</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H113" s="1">
+        <v>6</v>
+      </c>
+      <c r="I113" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A114" s="1">
+        <v>2110</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>6</v>
+      </c>
+      <c r="I114" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A115" s="1">
+        <v>2111</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H115" s="1">
+        <v>6</v>
+      </c>
+      <c r="I115" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A116" s="1">
+        <v>2112</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H116" s="1">
+        <v>6</v>
+      </c>
+      <c r="I116" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A117" s="1">
+        <v>2113</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H117" s="1">
+        <v>6</v>
+      </c>
+      <c r="I117" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A118" s="1">
+        <v>2114</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H118" s="1">
+        <v>6</v>
+      </c>
+      <c r="I118" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A119" s="1">
+        <v>2115</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1012</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1012</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H119" s="1">
+        <v>6</v>
+      </c>
+      <c r="I119" s="1">
         <v>5</v>
       </c>
     </row>

--- a/Assets/ExcelDatas/PatternData.xlsx
+++ b/Assets/ExcelDatas/PatternData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{21C24808-8AE5-4B05-BB97-9C0F688605A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{644823B9-426D-4568-A764-D57A99E017D4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD630C7-5F4A-4125-884B-DDB7313035F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="3096" yWindow="1104" windowWidth="16788" windowHeight="11256" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="PatternTable" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>ALL</t>
   </si>
@@ -626,13 +626,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I119" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I119" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I118" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I118" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
     <tableColumn id="10" xr3:uid="{A1B50B1E-34DC-4AE8-8B12-DAE7B26F3FE7}" name="Name" dataDxfId="7"/>
@@ -945,23 +941,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:XFD119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
-    <col min="3" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
+    <col min="3" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -990,7 +986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1019,7 +1015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -1077,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -1106,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -1135,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -1164,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -1193,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -1222,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -1251,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -1280,7 +1276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -1309,7 +1305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -1338,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -1367,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -1396,7 +1392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -1425,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -1454,7 +1450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -1483,7 +1479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -1512,7 +1508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -1541,7 +1537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -1570,7 +1566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -1599,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -1628,7 +1624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>2020</v>
       </c>
@@ -1657,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>2021</v>
       </c>
@@ -1686,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>2022</v>
       </c>
@@ -1715,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>2023</v>
       </c>
@@ -1744,7 +1740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>2024</v>
       </c>
@@ -1773,7 +1769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>2025</v>
       </c>
@@ -1802,7 +1798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>2026</v>
       </c>
@@ -1831,7 +1827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>2027</v>
       </c>
@@ -1860,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>2028</v>
       </c>
@@ -1889,7 +1885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>2029</v>
       </c>
@@ -1918,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>2030</v>
       </c>
@@ -1947,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>2031</v>
       </c>
@@ -1976,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>2032</v>
       </c>
@@ -2005,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>2033</v>
       </c>
@@ -2034,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>2034</v>
       </c>
@@ -2063,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>2035</v>
       </c>
@@ -2092,7 +2088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>2036</v>
       </c>
@@ -2121,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>2037</v>
       </c>
@@ -2150,7 +2146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>2038</v>
       </c>
@@ -2179,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>2039</v>
       </c>
@@ -2208,7 +2204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>2040</v>
       </c>
@@ -2237,7 +2233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>2041</v>
       </c>
@@ -2266,7 +2262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>2042</v>
       </c>
@@ -2295,7 +2291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>2043</v>
       </c>
@@ -2324,7 +2320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>2044</v>
       </c>
@@ -2353,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>2045</v>
       </c>
@@ -2382,7 +2378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>2046</v>
       </c>
@@ -2411,7 +2407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>2047</v>
       </c>
@@ -2440,7 +2436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>2048</v>
       </c>
@@ -2469,7 +2465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>2049</v>
       </c>
@@ -2498,7 +2494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>2050</v>
       </c>
@@ -2527,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>2051</v>
       </c>
@@ -2556,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>2052</v>
       </c>
@@ -2585,7 +2581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>2053</v>
       </c>
@@ -2614,7 +2610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>2054</v>
       </c>
@@ -2643,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>2055</v>
       </c>
@@ -2672,7 +2668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>2056</v>
       </c>
@@ -2701,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>2057</v>
       </c>
@@ -2730,7 +2726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>2058</v>
       </c>
@@ -2759,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>2059</v>
       </c>
@@ -2788,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>2060</v>
       </c>
@@ -2817,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>2061</v>
       </c>
@@ -2846,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>2062</v>
       </c>
@@ -2875,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>2063</v>
       </c>
@@ -2904,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>2064</v>
       </c>
@@ -2933,7 +2929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>2065</v>
       </c>
@@ -2962,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>2066</v>
       </c>
@@ -2991,7 +2987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>2067</v>
       </c>
@@ -3020,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>2068</v>
       </c>
@@ -3049,7 +3045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>2069</v>
       </c>
@@ -3078,7 +3074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>2070</v>
       </c>
@@ -3107,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>2071</v>
       </c>
@@ -3136,7 +3132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>2072</v>
       </c>
@@ -3165,7 +3161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>2073</v>
       </c>
@@ -3194,7 +3190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>2074</v>
       </c>
@@ -3223,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>2075</v>
       </c>
@@ -3252,7 +3248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>2076</v>
       </c>
@@ -3281,7 +3277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>2077</v>
       </c>
@@ -3310,7 +3306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>2078</v>
       </c>
@@ -3339,7 +3335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>2079</v>
       </c>
@@ -3368,7 +3364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>2080</v>
       </c>
@@ -3397,7 +3393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>2081</v>
       </c>
@@ -3426,7 +3422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>2082</v>
       </c>
@@ -3455,7 +3451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>2083</v>
       </c>
@@ -3484,7 +3480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>2084</v>
       </c>
@@ -3513,7 +3509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>2085</v>
       </c>
@@ -3542,7 +3538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>2086</v>
       </c>
@@ -3571,7 +3567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>2087</v>
       </c>
@@ -3600,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>2088</v>
       </c>
@@ -3629,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>2089</v>
       </c>
@@ -3658,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>2090</v>
       </c>
@@ -3687,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>2091</v>
       </c>
@@ -3716,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>2092</v>
       </c>
@@ -3745,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>2093</v>
       </c>
@@ -3774,7 +3770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>2094</v>
       </c>
@@ -3803,7 +3799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>2095</v>
       </c>
@@ -3832,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>2096</v>
       </c>
@@ -3861,7 +3857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>2097</v>
       </c>
@@ -3890,7 +3886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>2098</v>
       </c>
@@ -3919,7 +3915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>2099</v>
       </c>
@@ -3948,7 +3944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>2100</v>
       </c>
@@ -3977,7 +3973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>2101</v>
       </c>
@@ -4006,7 +4002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>2102</v>
       </c>
@@ -4035,7 +4031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>2103</v>
       </c>
@@ -4064,7 +4060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>2104</v>
       </c>
@@ -4093,7 +4089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>2105</v>
       </c>
@@ -4122,7 +4118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>2106</v>
       </c>
@@ -4151,7 +4147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>2107</v>
       </c>
@@ -4180,7 +4176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>2108</v>
       </c>
@@ -4209,7 +4205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>2109</v>
       </c>
@@ -4238,7 +4234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>2110</v>
       </c>
@@ -4267,7 +4263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>2111</v>
       </c>
@@ -4296,7 +4292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>2112</v>
       </c>
@@ -4325,7 +4321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>2113</v>
       </c>
@@ -4354,7 +4350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>2114</v>
       </c>
@@ -4381,35 +4377,6 @@
       </c>
       <c r="I118" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A119" s="1">
-        <v>2115</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C119" s="1">
-        <v>1012</v>
-      </c>
-      <c r="D119" s="1">
-        <v>1012</v>
-      </c>
-      <c r="E119" s="1">
-        <v>1012</v>
-      </c>
-      <c r="F119" s="1">
-        <v>1012</v>
-      </c>
-      <c r="G119" s="1">
-        <v>1012</v>
-      </c>
-      <c r="H119" s="1">
-        <v>6</v>
-      </c>
-      <c r="I119" s="1">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
